--- a/customers-100v1.xlsx
+++ b/customers-100v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://northeastern-my.sharepoint.com/personal/lyubimov_r_northeastern_edu/Documents/ECON 5200/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{973A22B4-C4B0-7242-A4BD-510750A56465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{ABE9D9B9-A81E-E741-A766-B0EA5CE3871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16220" yWindow="1340" windowWidth="22180" windowHeight="14260" activeTab="1" xr2:uid="{4E54DA99-4127-1B4B-BA0E-3540BA8152F5}"/>
+    <workbookView xWindow="16220" yWindow="1340" windowWidth="22180" windowHeight="14260" xr2:uid="{4E54DA99-4127-1B4B-BA0E-3540BA8152F5}"/>
   </bookViews>
   <sheets>
     <sheet name="customers-100v1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2994" uniqueCount="1837">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2995" uniqueCount="1838">
   <si>
     <t>Index</t>
   </si>
@@ -2966,9 +2966,6 @@
     <t>donnamullins@norris-barrett.org</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Phone 1 V2</t>
   </si>
   <si>
@@ -5571,6 +5568,12 @@
   </si>
   <si>
     <t>Missing Phone</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Customer ID Length</t>
   </si>
 </sst>
 </file>
@@ -6149,7 +6152,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6796,7 +6809,7 @@
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{84150EB4-8D08-E141-B397-8DFD175E79AA}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8A7BFFD9-921D-644B-AB6E-F4B18072A624}" name="Customer Id"/>
-    <tableColumn id="17" xr3:uid="{CA51E960-B63A-DB4E-8B03-7868614FBBBD}" name="Column1" dataDxfId="37">
+    <tableColumn id="17" xr3:uid="{CA51E960-B63A-DB4E-8B03-7868614FBBBD}" name="Name" dataDxfId="38">
       <calculatedColumnFormula>CONCATENATE(D2," ",E2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{8B1F860D-6F63-1746-B4B7-2A90A52E97AC}" name="First Name"/>
@@ -6807,11 +6820,11 @@
     <tableColumn id="8" xr3:uid="{FDD69451-660D-EC4D-8B37-9B32CB2E5BC8}" name="Phone 1"/>
     <tableColumn id="9" xr3:uid="{EB03DFEF-4076-3941-BAF6-EEA9AEFEF566}" name="Phone 2"/>
     <tableColumn id="10" xr3:uid="{B18FED8D-7687-BF4C-BE3A-8C64FA83F08B}" name="Email"/>
-    <tableColumn id="11" xr3:uid="{D93077BE-86B4-2C42-BE6E-3D5AE3885D54}" name="Subscription Date" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{D93077BE-86B4-2C42-BE6E-3D5AE3885D54}" name="Subscription Date" dataDxfId="37"/>
     <tableColumn id="12" xr3:uid="{44EC1E9D-D944-164F-901A-064739073BFD}" name="Website"/>
     <tableColumn id="13" xr3:uid="{906D76EC-B649-A843-A776-5EA52A0D96E3}" name="Phone 1 V2"/>
     <tableColumn id="14" xr3:uid="{1F11B020-962C-1748-BF08-DF097F09C86A}" name="Extension 1"/>
-    <tableColumn id="15" xr3:uid="{5F23933D-239B-F54A-9264-618B55EF9193}" name="Phone 2 V2" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{5F23933D-239B-F54A-9264-618B55EF9193}" name="Phone 2 V2" dataDxfId="36"/>
     <tableColumn id="16" xr3:uid="{566BF67F-DD21-3944-9283-251B9BA45079}" name="Extension 2 V2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6819,110 +6832,110 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4C01DC1E-1893-CB40-A136-1EEACDE38EDF}" name="Country" displayName="Country" ref="I1:I82" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4C01DC1E-1893-CB40-A136-1EEACDE38EDF}" name="Country" displayName="Country" ref="I1:I82" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="I1:I82" xr:uid="{4C01DC1E-1893-CB40-A136-1EEACDE38EDF}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{BE2583B0-1EF5-C74D-8E84-7F9DDC1E91C0}" name="Country" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{BE2583B0-1EF5-C74D-8E84-7F9DDC1E91C0}" name="Country" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4818EAF1-91F7-0741-B3EA-664C57EABA34}" name="Subscription_Date" displayName="Subscription_Date" ref="J1:J82" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4818EAF1-91F7-0741-B3EA-664C57EABA34}" name="Subscription_Date" displayName="Subscription_Date" ref="J1:J82" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="J1:J82" xr:uid="{4818EAF1-91F7-0741-B3EA-664C57EABA34}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2DF85D5C-369D-8441-AF5A-A5E3E9AC125C}" name="Subscription Date" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{2DF85D5C-369D-8441-AF5A-A5E3E9AC125C}" name="Subscription Date" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4A4CFF61-36B7-F841-BCBE-205003829483}" name="Website" displayName="Website" ref="K1:K82" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4A4CFF61-36B7-F841-BCBE-205003829483}" name="Website" displayName="Website" ref="K1:K82" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="K1:K82" xr:uid="{4A4CFF61-36B7-F841-BCBE-205003829483}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{6FE09D99-8CE4-B547-9E41-9EDAEA9921F0}" name="Website" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6FE09D99-8CE4-B547-9E41-9EDAEA9921F0}" name="Website" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D307F7B7-3098-5C43-AB83-EFAF1B93FB55}" name="CustomerID" displayName="CustomerID" ref="A1:A82" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D307F7B7-3098-5C43-AB83-EFAF1B93FB55}" name="CustomerID" displayName="CustomerID" ref="A1:A82" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:A82" xr:uid="{D307F7B7-3098-5C43-AB83-EFAF1B93FB55}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{FF7F1589-B3D8-AD4E-98E1-0A29F39D8BDA}" name="Customer ID" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{FF7F1589-B3D8-AD4E-98E1-0A29F39D8BDA}" name="Customer ID" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{606BAF85-8A80-9D47-B254-AF4B938B8D1F}" name="Email" displayName="Email" ref="B1:B82" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{606BAF85-8A80-9D47-B254-AF4B938B8D1F}" name="Email" displayName="Email" ref="B1:B82" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="B1:B82" xr:uid="{606BAF85-8A80-9D47-B254-AF4B938B8D1F}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D9AC4D22-DD99-B047-93C7-AA6422FE0328}" name="Email" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{D9AC4D22-DD99-B047-93C7-AA6422FE0328}" name="Email" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F1D5E906-B358-B745-A1BA-6295D6F92CFF}" name="Last_name" displayName="Last_name" ref="C1:C82" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F1D5E906-B358-B745-A1BA-6295D6F92CFF}" name="Last_name" displayName="Last_name" ref="C1:C82" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="C1:C82" xr:uid="{F1D5E906-B358-B745-A1BA-6295D6F92CFF}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A0189EC3-FAA7-5D47-84C2-FF96D15BE059}" name="Last name" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{A0189EC3-FAA7-5D47-84C2-FF96D15BE059}" name="Last name" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{97162B1C-0960-DD42-B4D9-5AA78719680D}" name="First_name" displayName="First_name" ref="D1:D82" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{97162B1C-0960-DD42-B4D9-5AA78719680D}" name="First_name" displayName="First_name" ref="D1:D82" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="D1:D82" xr:uid="{97162B1C-0960-DD42-B4D9-5AA78719680D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2F450081-2A9F-0046-91CF-D6B299C69D0B}" name="First name" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{2F450081-2A9F-0046-91CF-D6B299C69D0B}" name="First name" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{98C145B7-7278-EB49-BD2B-56299AEE3ABB}" name="Phone1" displayName="Phone1" ref="E1:E82" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{98C145B7-7278-EB49-BD2B-56299AEE3ABB}" name="Phone1" displayName="Phone1" ref="E1:E82" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="E1:E82" xr:uid="{98C145B7-7278-EB49-BD2B-56299AEE3ABB}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{EA0C95DC-C0F8-4A45-A32A-1E3C31CE6636}" name="Phone 1" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{EA0C95DC-C0F8-4A45-A32A-1E3C31CE6636}" name="Phone 1" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BEA90907-B9E0-C54A-BBB0-4D5D43C2444A}" name="Phone2" displayName="Phone2" ref="F1:F82" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BEA90907-B9E0-C54A-BBB0-4D5D43C2444A}" name="Phone2" displayName="Phone2" ref="F1:F82" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="F1:F82" xr:uid="{BEA90907-B9E0-C54A-BBB0-4D5D43C2444A}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2EB75432-341B-1940-8FE3-F3FE23039727}" name="Phone 2" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{2EB75432-341B-1940-8FE3-F3FE23039727}" name="Phone 2" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{241DD04E-8B50-5D44-8E46-227B1E8109EB}" name="Company" displayName="Company" ref="G1:G82" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{241DD04E-8B50-5D44-8E46-227B1E8109EB}" name="Company" displayName="Company" ref="G1:G82" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="G1:G82" xr:uid="{241DD04E-8B50-5D44-8E46-227B1E8109EB}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D7E08DFC-C6AA-074B-83F1-A81BB8891148}" name="Company" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{D7E08DFC-C6AA-074B-83F1-A81BB8891148}" name="Company" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D9C64F95-AAD3-F345-9C07-0E2004457C60}" name="City" displayName="City" ref="H1:H82" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D9C64F95-AAD3-F345-9C07-0E2004457C60}" name="City" displayName="City" ref="H1:H82" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="H1:H82" xr:uid="{D9C64F95-AAD3-F345-9C07-0E2004457C60}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{110B2A2E-C710-BF41-9E7E-6B28BFC6F34E}" name="City" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{110B2A2E-C710-BF41-9E7E-6B28BFC6F34E}" name="City" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7245,10 +7258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135B3CC9-ACF7-2D4D-9EA0-A726AA4A049F}">
-  <dimension ref="A1:V182"/>
+  <dimension ref="A1:W182"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="K30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7264,11 +7277,11 @@
     <col min="14" max="14" width="23.5" customWidth="1"/>
     <col min="15" max="15" width="19.1640625" customWidth="1"/>
     <col min="16" max="18" width="12.33203125" customWidth="1"/>
-    <col min="19" max="19" width="23.1640625" customWidth="1"/>
-    <col min="20" max="20" width="21.1640625" customWidth="1"/>
+    <col min="19" max="20" width="23.1640625" customWidth="1"/>
+    <col min="21" max="21" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7276,7 +7289,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>968</v>
+        <v>1836</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -7309,28 +7322,31 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="P1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="Q1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="R1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="S1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="U1" t="s">
         <v>1834</v>
       </c>
-      <c r="T1" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7372,10 +7388,10 @@
         <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="Q2">
         <v>718</v>
@@ -7388,15 +7404,19 @@
         <f>COUNTIF(L2:L182,"&lt;2022-01-01")</f>
         <v>161</v>
       </c>
-      <c r="U2" s="4">
+      <c r="T2">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+      <c r="V2" s="4">
         <v>1935085151</v>
       </c>
-      <c r="V2" t="str">
-        <f>_xlfn.CONCAT(LEFT(U2,3),"-",MID(U2,4,3),"-",RIGHT(U2,4))</f>
+      <c r="W2" t="str">
+        <f>_xlfn.CONCAT(LEFT(V2,3),"-",MID(V2,4,3),"-",RIGHT(V2,4))</f>
         <v>193-508-5151</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7438,10 +7458,10 @@
         <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="Q3">
         <v>944</v>
@@ -7449,15 +7469,19 @@
       <c r="R3" t="b">
         <v>0</v>
       </c>
-      <c r="U3" s="3">
+      <c r="T3">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+      <c r="V3" s="3">
         <v>2239271999</v>
       </c>
-      <c r="V3" t="str">
-        <f t="shared" ref="V3:V11" si="1">_xlfn.CONCAT(LEFT(U3,3),"-",MID(U3,4,3),"-",RIGHT(U3,4))</f>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W11" si="1">_xlfn.CONCAT(LEFT(V3,3),"-",MID(V3,4,3),"-",RIGHT(V3,4))</f>
         <v>223-927-1999</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7487,7 +7511,7 @@
         <v>-1199</v>
       </c>
       <c r="J4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="K4" t="s">
         <v>38</v>
@@ -7502,7 +7526,7 @@
         <v>-1199</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="Q4">
         <v>58947</v>
@@ -7510,15 +7534,19 @@
       <c r="R4" t="b">
         <v>0</v>
       </c>
-      <c r="U4" s="4">
+      <c r="T4">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+      <c r="V4" s="4">
         <v>4077245425</v>
       </c>
-      <c r="V4" t="str">
+      <c r="W4" t="str">
         <f t="shared" si="1"/>
         <v>407-724-5425</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7560,7 +7588,7 @@
         <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="O5">
         <v>12895</v>
@@ -7571,15 +7599,19 @@
       <c r="R5" t="b">
         <v>0</v>
       </c>
-      <c r="U5" s="3">
+      <c r="T5">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+      <c r="V5" s="3">
         <v>4500370767</v>
       </c>
-      <c r="V5" t="str">
+      <c r="W5" t="str">
         <f t="shared" si="1"/>
         <v>450-037-0767</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7621,13 +7653,13 @@
         <v>58</v>
       </c>
       <c r="N6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O6">
         <v>76146</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="Q6">
         <v>3486</v>
@@ -7635,15 +7667,19 @@
       <c r="R6" t="b">
         <v>0</v>
       </c>
-      <c r="U6" s="4">
+      <c r="T6">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+      <c r="V6" s="4">
         <v>5040771311</v>
       </c>
-      <c r="V6" t="str">
+      <c r="W6" t="str">
         <f t="shared" si="1"/>
         <v>504-077-1311</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7685,7 +7721,7 @@
         <v>68</v>
       </c>
       <c r="N7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="O7">
         <v>88321</v>
@@ -7696,15 +7732,19 @@
       <c r="R7" t="b">
         <v>0</v>
       </c>
-      <c r="U7" s="3">
+      <c r="T7">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+      <c r="V7" s="3">
         <v>5153435776</v>
       </c>
-      <c r="V7" t="str">
+      <c r="W7" t="str">
         <f t="shared" si="1"/>
         <v>515-343-5776</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7746,13 +7786,13 @@
         <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="O8">
         <v>3291</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="Q8">
         <v>4995</v>
@@ -7760,15 +7800,19 @@
       <c r="R8" t="b">
         <v>0</v>
       </c>
-      <c r="U8" s="4">
+      <c r="T8">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+      <c r="V8" s="4">
         <v>6303643286</v>
       </c>
-      <c r="V8" t="str">
+      <c r="W8" t="str">
         <f t="shared" si="1"/>
         <v>630-364-3286</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7810,26 +7854,30 @@
         <v>88</v>
       </c>
       <c r="N9" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="O9">
         <v>297</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
       </c>
-      <c r="U9" s="3">
+      <c r="T9">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+      <c r="V9" s="3">
         <v>6977745822</v>
       </c>
-      <c r="V9" t="str">
+      <c r="W9" t="str">
         <f t="shared" si="1"/>
         <v>697-774-5822</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7871,13 +7919,13 @@
         <v>97</v>
       </c>
       <c r="N10" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="O10">
         <v>5772</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="Q10">
         <v>729</v>
@@ -7885,15 +7933,19 @@
       <c r="R10" t="b">
         <v>0</v>
       </c>
-      <c r="U10" s="4">
+      <c r="T10">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+      <c r="V10" s="4">
         <v>7208417020</v>
       </c>
-      <c r="V10" t="str">
+      <c r="W10" t="str">
         <f t="shared" si="1"/>
         <v>720-841-7020</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7935,13 +7987,13 @@
         <v>107</v>
       </c>
       <c r="N11" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O11">
         <v>459</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Q11">
         <v>617</v>
@@ -7949,15 +8001,19 @@
       <c r="R11" t="b">
         <v>0</v>
       </c>
-      <c r="U11" s="3">
+      <c r="T11">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+      <c r="V11" s="3">
         <v>8275702958</v>
       </c>
-      <c r="V11" t="str">
+      <c r="W11" t="str">
         <f t="shared" si="1"/>
         <v>827-570-2958</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7999,13 +8055,13 @@
         <v>117</v>
       </c>
       <c r="N12" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O12">
         <v>825</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="Q12">
         <v>788</v>
@@ -8013,8 +8069,12 @@
       <c r="R12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T12">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8056,10 +8116,10 @@
         <v>127</v>
       </c>
       <c r="N13" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="Q13">
         <v>42608</v>
@@ -8067,8 +8127,12 @@
       <c r="R13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8110,16 +8174,20 @@
         <v>137</v>
       </c>
       <c r="N14" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8161,13 +8229,13 @@
         <v>147</v>
       </c>
       <c r="N15" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O15">
         <v>62152</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="Q15">
         <v>8074</v>
@@ -8175,8 +8243,12 @@
       <c r="R15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T15">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8218,7 +8290,7 @@
         <v>157</v>
       </c>
       <c r="N16" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O16">
         <v>8306</v>
@@ -8229,8 +8301,12 @@
       <c r="R16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T16">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8272,13 +8348,13 @@
         <v>167</v>
       </c>
       <c r="N17" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="O17">
         <v>185</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="Q17">
         <v>21881</v>
@@ -8286,8 +8362,12 @@
       <c r="R17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T17">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8329,13 +8409,13 @@
         <v>177</v>
       </c>
       <c r="N18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O18">
         <v>9924</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="Q18">
         <v>359</v>
@@ -8343,12 +8423,16 @@
       <c r="R18" t="b">
         <v>0</v>
       </c>
-      <c r="U18" t="str">
+      <c r="T18">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+      <c r="V18" t="str">
         <f>TRIM(B10)</f>
         <v>C2dE4dEEc489ae0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8390,10 +8474,10 @@
         <v>186</v>
       </c>
       <c r="N19" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="Q19">
         <v>26241</v>
@@ -8401,8 +8485,12 @@
       <c r="R19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T19">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8444,19 +8532,23 @@
         <v>196</v>
       </c>
       <c r="N20" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O20">
         <v>469</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T20">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8498,13 +8590,13 @@
         <v>205</v>
       </c>
       <c r="N21" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="O21">
         <v>711</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="Q21">
         <v>11543</v>
@@ -8512,8 +8604,12 @@
       <c r="R21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T21">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8555,10 +8651,10 @@
         <v>215</v>
       </c>
       <c r="N22" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q22">
         <v>7491</v>
@@ -8566,8 +8662,12 @@
       <c r="R22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T22">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8609,13 +8709,13 @@
         <v>225</v>
       </c>
       <c r="N23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="O23">
         <v>10611</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="Q23">
         <v>4684</v>
@@ -8623,8 +8723,12 @@
       <c r="R23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T23">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8654,7 +8758,7 @@
         <v>1935085151</v>
       </c>
       <c r="J24" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="K24" t="s">
         <v>233</v>
@@ -8666,10 +8770,10 @@
         <v>234</v>
       </c>
       <c r="N24" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q24">
         <v>5488</v>
@@ -8677,8 +8781,12 @@
       <c r="R24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T24">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8720,19 +8828,23 @@
         <v>244</v>
       </c>
       <c r="N25" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="O25">
         <v>7538</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="R25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T25">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8774,7 +8886,7 @@
         <v>254</v>
       </c>
       <c r="N26" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O26">
         <v>11004</v>
@@ -8785,8 +8897,12 @@
       <c r="R26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T26">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8832,7 +8948,7 @@
         <v>261</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q27">
         <v>566</v>
@@ -8840,8 +8956,12 @@
       <c r="R27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T27">
+        <f ca="1">LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8883,7 +9003,7 @@
         <v>274</v>
       </c>
       <c r="N28" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O28">
         <v>4720</v>
@@ -8894,8 +9014,12 @@
       <c r="R28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T28">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8944,13 +9068,17 @@
         <v>687</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="R29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T29">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8992,10 +9120,10 @@
         <v>294</v>
       </c>
       <c r="N30" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="Q30">
         <v>85074</v>
@@ -9003,8 +9131,12 @@
       <c r="R30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T30">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9053,13 +9185,17 @@
         <v>884</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T31">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9101,13 +9237,13 @@
         <v>314</v>
       </c>
       <c r="N32" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="O32">
         <v>20714</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="Q32">
         <v>6784</v>
@@ -9115,8 +9251,12 @@
       <c r="R32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T32">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9161,13 +9301,17 @@
         <v>321</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="R33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T33">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9209,10 +9353,10 @@
         <v>333</v>
       </c>
       <c r="N34" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="Q34">
         <v>66800</v>
@@ -9220,8 +9364,12 @@
       <c r="R34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T34">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9263,10 +9411,10 @@
         <v>342</v>
       </c>
       <c r="N35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="Q35">
         <v>7313</v>
@@ -9274,8 +9422,12 @@
       <c r="R35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T35">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9329,8 +9481,12 @@
       <c r="R36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T36">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9372,19 +9528,23 @@
         <v>360</v>
       </c>
       <c r="N37" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="O37">
         <v>6087</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="R37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T37">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9426,7 +9586,7 @@
         <v>370</v>
       </c>
       <c r="N38" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>368</v>
@@ -9434,8 +9594,12 @@
       <c r="R38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T38">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9477,7 +9641,7 @@
         <v>378</v>
       </c>
       <c r="N39" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="P39">
         <v>8035336772</v>
@@ -9485,8 +9649,12 @@
       <c r="R39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T39">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9531,7 +9699,7 @@
         <v>385</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="Q40">
         <v>367</v>
@@ -9539,8 +9707,12 @@
       <c r="R40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T40">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9582,13 +9754,13 @@
         <v>398</v>
       </c>
       <c r="N41" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="O41">
         <v>158</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="Q41">
         <v>5766</v>
@@ -9596,8 +9768,12 @@
       <c r="R41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T41">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9639,16 +9815,20 @@
         <v>407</v>
       </c>
       <c r="N42" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="R42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T42">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9690,10 +9870,10 @@
         <v>417</v>
       </c>
       <c r="N43" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="Q43">
         <v>13881</v>
@@ -9701,8 +9881,12 @@
       <c r="R43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T43">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9744,13 +9928,13 @@
         <v>427</v>
       </c>
       <c r="N44" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="O44">
         <v>1869</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="Q44">
         <v>38463</v>
@@ -9758,8 +9942,12 @@
       <c r="R44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T44">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9801,13 +9989,13 @@
         <v>436</v>
       </c>
       <c r="N45" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O45">
         <v>701</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="Q45">
         <v>6092</v>
@@ -9815,8 +10003,12 @@
       <c r="R45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T45">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9858,10 +10050,10 @@
         <v>446</v>
       </c>
       <c r="N46" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="Q46">
         <v>3492</v>
@@ -9869,8 +10061,12 @@
       <c r="R46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T46">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9912,10 +10108,10 @@
         <v>456</v>
       </c>
       <c r="N47" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="Q47">
         <v>5721</v>
@@ -9923,8 +10119,12 @@
       <c r="R47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T47">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9966,19 +10166,23 @@
         <v>466</v>
       </c>
       <c r="N48" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="O48">
         <v>269</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="R48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T48">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10023,7 +10227,7 @@
         <v>473</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="Q49">
         <v>4524</v>
@@ -10031,8 +10235,12 @@
       <c r="R49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T49">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10074,13 +10282,13 @@
         <v>486</v>
       </c>
       <c r="N50" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="O50">
         <v>524</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="Q50">
         <v>894</v>
@@ -10088,8 +10296,12 @@
       <c r="R50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T50">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10131,13 +10343,13 @@
         <v>495</v>
       </c>
       <c r="N51" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="O51">
         <v>29481</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="Q51">
         <v>32790</v>
@@ -10145,8 +10357,12 @@
       <c r="R51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T51">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10176,7 +10392,7 @@
         <v>502</v>
       </c>
       <c r="J52" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K52" t="s">
         <v>504</v>
@@ -10195,13 +10411,17 @@
         <v>96168</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="R52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T52">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10246,7 +10466,7 @@
         <v>512</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Q53">
         <v>8578</v>
@@ -10254,8 +10474,12 @@
       <c r="R53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T53">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10297,19 +10521,23 @@
         <v>525</v>
       </c>
       <c r="N54" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O54">
         <v>70040</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="R54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T54">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10351,13 +10579,13 @@
         <v>535</v>
       </c>
       <c r="N55" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="O55">
         <v>24810</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="Q55">
         <v>8891</v>
@@ -10365,8 +10593,12 @@
       <c r="R55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T55">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10408,10 +10640,10 @@
         <v>545</v>
       </c>
       <c r="N56" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Q56">
         <v>525</v>
@@ -10419,8 +10651,12 @@
       <c r="R56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T56">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10462,10 +10698,10 @@
         <v>554</v>
       </c>
       <c r="N57" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="Q57">
         <v>649</v>
@@ -10473,8 +10709,12 @@
       <c r="R57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T57">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10516,10 +10756,10 @@
         <v>563</v>
       </c>
       <c r="N58" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="Q58">
         <v>17</v>
@@ -10527,8 +10767,12 @@
       <c r="R58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T58">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10570,13 +10814,13 @@
         <v>572</v>
       </c>
       <c r="N59" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O59">
         <v>8794</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="Q59">
         <v>571</v>
@@ -10584,8 +10828,12 @@
       <c r="R59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T59">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -10627,19 +10875,23 @@
         <v>581</v>
       </c>
       <c r="N60" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O60">
         <v>310</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="R60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T60">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -10681,7 +10933,7 @@
         <v>591</v>
       </c>
       <c r="N61" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="O61">
         <v>2022</v>
@@ -10692,8 +10944,12 @@
       <c r="R61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T61">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -10735,19 +10991,23 @@
         <v>601</v>
       </c>
       <c r="N62" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O62">
         <v>611</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="R62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T62">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -10789,13 +11049,13 @@
         <v>610</v>
       </c>
       <c r="N63" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O63">
         <v>8373</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="Q63">
         <v>15194</v>
@@ -10803,8 +11063,12 @@
       <c r="R63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T63">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -10834,7 +11098,7 @@
         <v>617</v>
       </c>
       <c r="J64" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K64" t="s">
         <v>619</v>
@@ -10853,7 +11117,7 @@
         <v>6306</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="Q64">
         <v>2417</v>
@@ -10861,8 +11125,12 @@
       <c r="R64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T64">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -10907,7 +11175,7 @@
         <v>625</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="Q65">
         <v>60</v>
@@ -10915,8 +11183,12 @@
       <c r="R65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T65">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -10965,7 +11237,7 @@
         <v>53578</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="Q66">
         <v>680</v>
@@ -10973,8 +11245,12 @@
       <c r="R66" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T66">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11016,7 +11292,7 @@
         <v>647</v>
       </c>
       <c r="N67" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="P67">
         <v>3863743398</v>
@@ -11024,8 +11300,12 @@
       <c r="R67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T67">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11067,7 +11347,7 @@
         <v>657</v>
       </c>
       <c r="N68" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="O68">
         <v>46009</v>
@@ -11078,8 +11358,12 @@
       <c r="R68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T68">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11121,13 +11405,13 @@
         <v>666</v>
       </c>
       <c r="N69" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O69">
         <v>2258</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="Q69">
         <v>5614</v>
@@ -11135,8 +11419,12 @@
       <c r="R69" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T69">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -11178,13 +11466,13 @@
         <v>676</v>
       </c>
       <c r="N70" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O70">
         <v>14184</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="Q70">
         <v>4636</v>
@@ -11192,8 +11480,12 @@
       <c r="R70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T70">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -11235,7 +11527,7 @@
         <v>684</v>
       </c>
       <c r="N71" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="P71" s="6" t="s">
         <v>682</v>
@@ -11243,8 +11535,12 @@
       <c r="R71" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T71">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -11286,13 +11582,13 @@
         <v>694</v>
       </c>
       <c r="N72" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O72">
         <v>76668</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="Q72">
         <v>68751</v>
@@ -11300,8 +11596,12 @@
       <c r="R72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T72">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -11351,8 +11651,12 @@
       <c r="R73" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T73">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -11394,13 +11698,13 @@
         <v>711</v>
       </c>
       <c r="N74" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="O74">
         <v>92406</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Q74">
         <v>53076</v>
@@ -11408,8 +11712,12 @@
       <c r="R74" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T74">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -11451,13 +11759,13 @@
         <v>721</v>
       </c>
       <c r="N75" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O75">
         <v>69878</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q75">
         <v>71</v>
@@ -11465,12 +11773,16 @@
       <c r="R75" t="b">
         <v>0</v>
       </c>
-      <c r="U75" t="str">
+      <c r="T75">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+      <c r="V75" t="str">
         <f>TRIM(customer_source_1[[#This Row],[Customer Id]])</f>
         <v>A3F76Be153Df4a3</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -11512,13 +11824,13 @@
         <v>730</v>
       </c>
       <c r="N76" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="O76">
         <v>4407</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="Q76">
         <v>357</v>
@@ -11526,8 +11838,12 @@
       <c r="R76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T76">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -11557,7 +11873,7 @@
         <v>737</v>
       </c>
       <c r="J77" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K77" t="s">
         <v>739</v>
@@ -11576,13 +11892,17 @@
         <v>14336</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="R77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T77">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -11624,10 +11944,10 @@
         <v>750</v>
       </c>
       <c r="N78" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="Q78">
         <v>157</v>
@@ -11635,8 +11955,12 @@
       <c r="R78" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T78">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -11678,10 +12002,10 @@
         <v>759</v>
       </c>
       <c r="N79" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="P79" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="Q79">
         <v>1326</v>
@@ -11689,8 +12013,12 @@
       <c r="R79" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T79">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -11732,13 +12060,13 @@
         <v>769</v>
       </c>
       <c r="N80" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O80">
         <v>553</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="Q80">
         <v>277</v>
@@ -11746,8 +12074,12 @@
       <c r="R80" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T80">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -11789,13 +12121,13 @@
         <v>779</v>
       </c>
       <c r="N81" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O81">
         <v>51468</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="Q81">
         <v>2329</v>
@@ -11803,8 +12135,12 @@
       <c r="R81" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T81">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -11846,16 +12182,20 @@
         <v>789</v>
       </c>
       <c r="N82" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="R82" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T82">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -11897,10 +12237,10 @@
         <v>798</v>
       </c>
       <c r="N83" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Q83">
         <v>665</v>
@@ -11908,8 +12248,12 @@
       <c r="R83" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T83">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -11951,16 +12295,20 @@
         <v>808</v>
       </c>
       <c r="N84" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="R84" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T84">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -12002,16 +12350,20 @@
         <v>816</v>
       </c>
       <c r="N85" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="R85" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T85">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -12053,7 +12405,7 @@
         <v>826</v>
       </c>
       <c r="N86" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O86">
         <v>7918</v>
@@ -12064,8 +12416,12 @@
       <c r="R86" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T86">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -12107,13 +12463,13 @@
         <v>836</v>
       </c>
       <c r="N87" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O87">
         <v>60217</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="Q87">
         <v>2284</v>
@@ -12121,8 +12477,12 @@
       <c r="R87" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T87">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -12164,13 +12524,13 @@
         <v>846</v>
       </c>
       <c r="N88" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O88">
         <v>7288</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Q88">
         <v>5932</v>
@@ -12178,8 +12538,12 @@
       <c r="R88" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T88">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -12224,7 +12588,7 @@
         <v>853</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="Q89">
         <v>6287</v>
@@ -12232,8 +12596,12 @@
       <c r="R89" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T89">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -12275,7 +12643,7 @@
         <v>866</v>
       </c>
       <c r="N90" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O90">
         <v>555</v>
@@ -12286,8 +12654,12 @@
       <c r="R90" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T90">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -12329,10 +12701,10 @@
         <v>876</v>
       </c>
       <c r="N91" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q91">
         <v>4581</v>
@@ -12340,8 +12712,12 @@
       <c r="R91" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T91">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -12386,7 +12762,7 @@
         <v>883</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="Q92">
         <v>571</v>
@@ -12394,13 +12770,17 @@
       <c r="R92" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T92">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="3"/>
@@ -12440,7 +12820,7 @@
         <v>-1692</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="Q93">
         <v>55073</v>
@@ -12448,8 +12828,12 @@
       <c r="R93" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T93">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -12491,13 +12875,13 @@
         <v>903</v>
       </c>
       <c r="N94" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O94">
         <v>12</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="Q94">
         <v>8516</v>
@@ -12505,8 +12889,12 @@
       <c r="R94" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T94">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -12551,7 +12939,7 @@
         <v>908</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -12559,8 +12947,12 @@
       <c r="R95" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T95">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -12602,19 +12994,23 @@
         <v>921</v>
       </c>
       <c r="N96" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O96">
         <v>1777</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="R96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T96">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -12656,13 +13052,13 @@
         <v>930</v>
       </c>
       <c r="N97" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O97">
         <v>58692</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Q97">
         <v>614</v>
@@ -12670,8 +13066,12 @@
       <c r="R97" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T97">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -12716,13 +13116,17 @@
         <v>-3769</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="R98" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T98">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -12771,7 +13175,7 @@
         <v>7170</v>
       </c>
       <c r="P99" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="Q99">
         <v>92121</v>
@@ -12779,8 +13183,12 @@
       <c r="R99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T99">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -12822,10 +13230,10 @@
         <v>956</v>
       </c>
       <c r="N100" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="P100" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="Q100">
         <v>12424</v>
@@ -12833,8 +13241,12 @@
       <c r="R100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T100">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -12876,16 +13288,20 @@
         <v>966</v>
       </c>
       <c r="N101" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="P101" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="R101" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T101">
+        <f>LEN(customer_source_1[[#This Row],[Customer Id]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -12936,12 +13352,16 @@
       <c r="R102" t="b">
         <v>0</v>
       </c>
-      <c r="T102" t="str">
+      <c r="T102" cm="1">
+        <f t="array" ref="T102:T182">LEN(_xlfn.ANCHORARRAY(B102))</f>
+        <v>15</v>
+      </c>
+      <c r="U102" t="str">
         <f>_xlfn.CONCAT("http://",M102, "/")</f>
         <v>http://curtis-archer.info/</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -12981,12 +13401,15 @@
       <c r="R103" t="b">
         <v>0</v>
       </c>
-      <c r="T103" t="str">
-        <f t="shared" ref="T103:T166" si="5">_xlfn.CONCAT("http://",M103, "/")</f>
+      <c r="T103">
+        <v>15</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" ref="U103:U166" si="5">_xlfn.CONCAT("http://",M103, "/")</f>
         <v>http://barr.org/</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -13026,12 +13449,15 @@
       <c r="R104" t="b">
         <v>0</v>
       </c>
-      <c r="T104" t="str">
+      <c r="T104">
+        <v>15</v>
+      </c>
+      <c r="U104" t="str">
         <f t="shared" si="5"/>
         <v>http://chaney.info/</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -13071,12 +13497,15 @@
       <c r="R105" t="b">
         <v>0</v>
       </c>
-      <c r="T105" t="str">
+      <c r="T105">
+        <v>15</v>
+      </c>
+      <c r="U105" t="str">
         <f t="shared" si="5"/>
         <v>http://www.moore.com/</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -13116,12 +13545,15 @@
       <c r="R106" t="b">
         <v>0</v>
       </c>
-      <c r="T106" t="str">
+      <c r="T106">
+        <v>15</v>
+      </c>
+      <c r="U106" t="str">
         <f t="shared" si="5"/>
         <v>http://myers.org/</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -13161,12 +13593,15 @@
       <c r="R107" t="b">
         <v>0</v>
       </c>
-      <c r="T107" t="str">
+      <c r="T107">
+        <v>15</v>
+      </c>
+      <c r="U107" t="str">
         <f t="shared" si="5"/>
         <v>http://www.kelly.com/</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -13206,12 +13641,15 @@
       <c r="R108" t="b">
         <v>0</v>
       </c>
-      <c r="T108" t="str">
+      <c r="T108">
+        <v>15</v>
+      </c>
+      <c r="U108" t="str">
         <f t="shared" si="5"/>
         <v>http://www.park.com/</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -13251,12 +13689,15 @@
       <c r="R109" t="b">
         <v>0</v>
       </c>
-      <c r="T109" t="str">
+      <c r="T109">
+        <v>15</v>
+      </c>
+      <c r="U109" t="str">
         <f t="shared" si="5"/>
         <v>http://waller.com/</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -13296,12 +13737,15 @@
       <c r="R110" t="b">
         <v>0</v>
       </c>
-      <c r="T110" t="str">
+      <c r="T110">
+        <v>15</v>
+      </c>
+      <c r="U110" t="str">
         <f t="shared" si="5"/>
         <v>http://www.sanford.info/</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -13341,12 +13785,15 @@
       <c r="R111" t="b">
         <v>0</v>
       </c>
-      <c r="T111" t="str">
+      <c r="T111">
+        <v>15</v>
+      </c>
+      <c r="U111" t="str">
         <f t="shared" si="5"/>
         <v>http://ellison-cobb.com/</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -13386,12 +13833,15 @@
       <c r="R112" t="b">
         <v>0</v>
       </c>
-      <c r="T112" t="str">
+      <c r="T112">
+        <v>15</v>
+      </c>
+      <c r="U112" t="str">
         <f t="shared" si="5"/>
         <v>http://gonzales.com/</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -13431,12 +13881,15 @@
       <c r="R113" t="b">
         <v>0</v>
       </c>
-      <c r="T113" t="str">
+      <c r="T113">
+        <v>15</v>
+      </c>
+      <c r="U113" t="str">
         <f t="shared" si="5"/>
         <v>http://lester.net/</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -13476,12 +13929,15 @@
       <c r="R114" t="b">
         <v>0</v>
       </c>
-      <c r="T114" t="str">
+      <c r="T114">
+        <v>15</v>
+      </c>
+      <c r="U114" t="str">
         <f t="shared" si="5"/>
         <v>http://hardin.net/</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -13521,12 +13977,15 @@
       <c r="R115" t="b">
         <v>0</v>
       </c>
-      <c r="T115" t="str">
+      <c r="T115">
+        <v>15</v>
+      </c>
+      <c r="U115" t="str">
         <f t="shared" si="5"/>
         <v>http://bartlett.com/</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -13566,12 +14025,15 @@
       <c r="R116" t="b">
         <v>0</v>
       </c>
-      <c r="T116" t="str">
+      <c r="T116">
+        <v>15</v>
+      </c>
+      <c r="U116" t="str">
         <f t="shared" si="5"/>
         <v>http://stephens.net/</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -13611,12 +14073,15 @@
       <c r="R117" t="b">
         <v>0</v>
       </c>
-      <c r="T117" t="str">
+      <c r="T117">
+        <v>15</v>
+      </c>
+      <c r="U117" t="str">
         <f t="shared" si="5"/>
         <v>http://www.mayo.com/</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -13656,12 +14121,15 @@
       <c r="R118" t="b">
         <v>0</v>
       </c>
-      <c r="T118" t="str">
+      <c r="T118">
+        <v>15</v>
+      </c>
+      <c r="U118" t="str">
         <f t="shared" si="5"/>
         <v>http://wood.org/</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -13701,12 +14169,15 @@
       <c r="R119" t="b">
         <v>0</v>
       </c>
-      <c r="T119" t="str">
+      <c r="T119">
+        <v>15</v>
+      </c>
+      <c r="U119" t="str">
         <f t="shared" si="5"/>
         <v>http://www.goodman.com/</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -13746,12 +14217,15 @@
       <c r="R120" t="b">
         <v>0</v>
       </c>
-      <c r="T120" t="str">
+      <c r="T120">
+        <v>15</v>
+      </c>
+      <c r="U120" t="str">
         <f t="shared" si="5"/>
         <v>http://www.mills.com/</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -13791,12 +14265,15 @@
       <c r="R121" t="b">
         <v>0</v>
       </c>
-      <c r="T121" t="str">
+      <c r="T121">
+        <v>15</v>
+      </c>
+      <c r="U121" t="str">
         <f t="shared" si="5"/>
         <v>http://perkins.net/</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -13836,12 +14313,15 @@
       <c r="R122" t="b">
         <v>0</v>
       </c>
-      <c r="T122" t="str">
+      <c r="T122">
+        <v>15</v>
+      </c>
+      <c r="U122" t="str">
         <f t="shared" si="5"/>
         <v>http://www.jenkins-harrison.net/</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -13881,12 +14361,15 @@
       <c r="R123" t="b">
         <v>0</v>
       </c>
-      <c r="T123" t="str">
+      <c r="T123">
+        <v>15</v>
+      </c>
+      <c r="U123" t="str">
         <f t="shared" si="5"/>
         <v>http://gallagher-ellison.biz/</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -13926,12 +14409,15 @@
       <c r="R124" t="b">
         <v>0</v>
       </c>
-      <c r="T124" t="str">
+      <c r="T124">
+        <v>15</v>
+      </c>
+      <c r="U124" t="str">
         <f t="shared" si="5"/>
         <v>http://knapp-mcpherson.com/</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -13971,12 +14457,15 @@
       <c r="R125" t="b">
         <v>0</v>
       </c>
-      <c r="T125" t="str">
+      <c r="T125">
+        <v>15</v>
+      </c>
+      <c r="U125" t="str">
         <f t="shared" si="5"/>
         <v>http://humphrey.com/</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -14016,12 +14505,15 @@
       <c r="R126" t="b">
         <v>0</v>
       </c>
-      <c r="T126" t="str">
+      <c r="T126">
+        <v>15</v>
+      </c>
+      <c r="U126" t="str">
         <f t="shared" si="5"/>
         <v>http://kent.biz/</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14061,12 +14553,15 @@
       <c r="R127" t="b">
         <v>0</v>
       </c>
-      <c r="T127" t="str">
+      <c r="T127">
+        <v>15</v>
+      </c>
+      <c r="U127" t="str">
         <f t="shared" si="5"/>
         <v>http://www.pacheco-hodges.org/</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -14106,12 +14601,15 @@
       <c r="R128" t="b">
         <v>0</v>
       </c>
-      <c r="T128" t="str">
+      <c r="T128">
+        <v>15</v>
+      </c>
+      <c r="U128" t="str">
         <f t="shared" si="5"/>
         <v>http://www.serrano-lang.biz/</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -14151,12 +14649,15 @@
       <c r="R129" t="b">
         <v>0</v>
       </c>
-      <c r="T129" t="str">
+      <c r="T129">
+        <v>15</v>
+      </c>
+      <c r="U129" t="str">
         <f t="shared" si="5"/>
         <v>http://www.soto-rocha.com/</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -14196,12 +14697,15 @@
       <c r="R130" t="b">
         <v>0</v>
       </c>
-      <c r="T130" t="str">
+      <c r="T130">
+        <v>15</v>
+      </c>
+      <c r="U130" t="str">
         <f t="shared" si="5"/>
         <v>http://guerrero-horne.com/</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -14241,12 +14745,15 @@
       <c r="R131" t="b">
         <v>0</v>
       </c>
-      <c r="T131" t="str">
+      <c r="T131">
+        <v>15</v>
+      </c>
+      <c r="U131" t="str">
         <f t="shared" si="5"/>
         <v>http://mcintosh-bishop.com/</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -14286,12 +14793,15 @@
       <c r="R132" t="b">
         <v>0</v>
       </c>
-      <c r="T132" t="str">
+      <c r="T132">
+        <v>15</v>
+      </c>
+      <c r="U132" t="str">
         <f t="shared" si="5"/>
         <v>http://www.underwood.com/</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -14331,12 +14841,15 @@
       <c r="R133" t="b">
         <v>0</v>
       </c>
-      <c r="T133" t="str">
+      <c r="T133">
+        <v>15</v>
+      </c>
+      <c r="U133" t="str">
         <f t="shared" si="5"/>
         <v>http://www.dean.biz/</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -14376,12 +14889,15 @@
       <c r="R134" t="b">
         <v>0</v>
       </c>
-      <c r="T134" t="str">
+      <c r="T134">
+        <v>15</v>
+      </c>
+      <c r="U134" t="str">
         <f t="shared" si="5"/>
         <v>http://www.dalton.com/</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -14421,12 +14937,15 @@
       <c r="R135" t="b">
         <v>0</v>
       </c>
-      <c r="T135" t="str">
+      <c r="T135">
+        <v>15</v>
+      </c>
+      <c r="U135" t="str">
         <f t="shared" si="5"/>
         <v>http://lynn.com/</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -14466,12 +14985,15 @@
       <c r="R136" t="b">
         <v>0</v>
       </c>
-      <c r="T136" t="str">
+      <c r="T136">
+        <v>15</v>
+      </c>
+      <c r="U136" t="str">
         <f t="shared" si="5"/>
         <v>http://brown.biz/</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -14511,12 +15033,15 @@
       <c r="R137" t="b">
         <v>0</v>
       </c>
-      <c r="T137" t="str">
+      <c r="T137">
+        <v>15</v>
+      </c>
+      <c r="U137" t="str">
         <f t="shared" si="5"/>
         <v>http://www.cooke.com/</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -14556,12 +15081,15 @@
       <c r="R138" t="b">
         <v>0</v>
       </c>
-      <c r="T138" t="str">
+      <c r="T138">
+        <v>15</v>
+      </c>
+      <c r="U138" t="str">
         <f t="shared" si="5"/>
         <v>http://zamora-ross.org/</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -14601,12 +15129,15 @@
       <c r="R139" t="b">
         <v>0</v>
       </c>
-      <c r="T139" t="str">
+      <c r="T139">
+        <v>15</v>
+      </c>
+      <c r="U139" t="str">
         <f t="shared" si="5"/>
         <v>http://estes.com/</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -14646,12 +15177,15 @@
       <c r="R140" t="b">
         <v>0</v>
       </c>
-      <c r="T140" t="str">
+      <c r="T140">
+        <v>15</v>
+      </c>
+      <c r="U140" t="str">
         <f t="shared" si="5"/>
         <v>http://www.anthony-davis.info/</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -14691,12 +15225,15 @@
       <c r="R141" t="b">
         <v>0</v>
       </c>
-      <c r="T141" t="str">
+      <c r="T141">
+        <v>15</v>
+      </c>
+      <c r="U141" t="str">
         <f t="shared" si="5"/>
         <v>http://www.barry.com/</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -14736,12 +15273,15 @@
       <c r="R142" t="b">
         <v>0</v>
       </c>
-      <c r="T142" t="str">
+      <c r="T142">
+        <v>15</v>
+      </c>
+      <c r="U142" t="str">
         <f t="shared" si="5"/>
         <v>http://www.gutierrez.com/</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -14781,12 +15321,15 @@
       <c r="R143" t="b">
         <v>0</v>
       </c>
-      <c r="T143" t="str">
+      <c r="T143">
+        <v>15</v>
+      </c>
+      <c r="U143" t="str">
         <f t="shared" si="5"/>
         <v>http://www.wyatt.com/</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -14826,12 +15369,15 @@
       <c r="R144" t="b">
         <v>0</v>
       </c>
-      <c r="T144" t="str">
+      <c r="T144">
+        <v>15</v>
+      </c>
+      <c r="U144" t="str">
         <f t="shared" si="5"/>
         <v>http://www.velasquez-white.org/</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -14871,12 +15417,15 @@
       <c r="R145" t="b">
         <v>0</v>
       </c>
-      <c r="T145" t="str">
+      <c r="T145">
+        <v>15</v>
+      </c>
+      <c r="U145" t="str">
         <f t="shared" si="5"/>
         <v>http://www.owen.org/</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -14916,12 +15465,15 @@
       <c r="R146" t="b">
         <v>0</v>
       </c>
-      <c r="T146" t="str">
+      <c r="T146">
+        <v>15</v>
+      </c>
+      <c r="U146" t="str">
         <f t="shared" si="5"/>
         <v>http://www.richard-horne.biz/</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -14961,12 +15513,15 @@
       <c r="R147" t="b">
         <v>0</v>
       </c>
-      <c r="T147" t="str">
+      <c r="T147">
+        <v>15</v>
+      </c>
+      <c r="U147" t="str">
         <f t="shared" si="5"/>
         <v>http://www.matthews-ware.com/</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -15006,12 +15561,15 @@
       <c r="R148" t="b">
         <v>0</v>
       </c>
-      <c r="T148" t="str">
+      <c r="T148">
+        <v>15</v>
+      </c>
+      <c r="U148" t="str">
         <f t="shared" si="5"/>
         <v>http://www.donaldson-vega.com/</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -15051,12 +15609,15 @@
       <c r="R149" t="b">
         <v>0</v>
       </c>
-      <c r="T149" t="str">
+      <c r="T149">
+        <v>15</v>
+      </c>
+      <c r="U149" t="str">
         <f t="shared" si="5"/>
         <v>http://www.barron.com/</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -15096,12 +15657,15 @@
       <c r="R150" t="b">
         <v>0</v>
       </c>
-      <c r="T150" t="str">
+      <c r="T150">
+        <v>15</v>
+      </c>
+      <c r="U150" t="str">
         <f t="shared" si="5"/>
         <v>http://colon.com/</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -15141,12 +15705,15 @@
       <c r="R151" t="b">
         <v>0</v>
       </c>
-      <c r="T151" t="str">
+      <c r="T151">
+        <v>15</v>
+      </c>
+      <c r="U151" t="str">
         <f t="shared" si="5"/>
         <v>http://fritz-alexander.org/</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -15186,12 +15753,15 @@
       <c r="R152" t="b">
         <v>0</v>
       </c>
-      <c r="T152" t="str">
+      <c r="T152">
+        <v>15</v>
+      </c>
+      <c r="U152" t="str">
         <f t="shared" si="5"/>
         <v>http://randolph-kane.biz/</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -15231,12 +15801,15 @@
       <c r="R153" t="b">
         <v>0</v>
       </c>
-      <c r="T153" t="str">
+      <c r="T153">
+        <v>15</v>
+      </c>
+      <c r="U153" t="str">
         <f t="shared" si="5"/>
         <v>http://murray.com/</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -15276,12 +15849,15 @@
       <c r="R154" t="b">
         <v>0</v>
       </c>
-      <c r="T154" t="str">
+      <c r="T154">
+        <v>15</v>
+      </c>
+      <c r="U154" t="str">
         <f t="shared" si="5"/>
         <v>http://www.lin-flowers.com/</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -15321,12 +15897,15 @@
       <c r="R155" t="b">
         <v>0</v>
       </c>
-      <c r="T155" t="str">
+      <c r="T155">
+        <v>15</v>
+      </c>
+      <c r="U155" t="str">
         <f t="shared" si="5"/>
         <v>http://booth.com/</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -15366,12 +15945,15 @@
       <c r="R156" t="b">
         <v>0</v>
       </c>
-      <c r="T156" t="str">
+      <c r="T156">
+        <v>15</v>
+      </c>
+      <c r="U156" t="str">
         <f t="shared" si="5"/>
         <v>http://www.austin.com/</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -15411,12 +15993,15 @@
       <c r="R157" t="b">
         <v>0</v>
       </c>
-      <c r="T157" t="str">
+      <c r="T157">
+        <v>15</v>
+      </c>
+      <c r="U157" t="str">
         <f t="shared" si="5"/>
         <v>http://www.ayers-jensen.com/</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -15456,12 +16041,15 @@
       <c r="R158" t="b">
         <v>0</v>
       </c>
-      <c r="T158" t="str">
+      <c r="T158">
+        <v>15</v>
+      </c>
+      <c r="U158" t="str">
         <f t="shared" si="5"/>
         <v>http://castillo.com/</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -15501,12 +16089,15 @@
       <c r="R159" t="b">
         <v>0</v>
       </c>
-      <c r="T159" t="str">
+      <c r="T159">
+        <v>15</v>
+      </c>
+      <c r="U159" t="str">
         <f t="shared" si="5"/>
         <v>http://moon-parsons.com/</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -15546,12 +16137,15 @@
       <c r="R160" t="b">
         <v>0</v>
       </c>
-      <c r="T160" t="str">
+      <c r="T160">
+        <v>15</v>
+      </c>
+      <c r="U160" t="str">
         <f t="shared" si="5"/>
         <v>http://hooper-humphrey.com/</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -15591,12 +16185,15 @@
       <c r="R161" t="b">
         <v>0</v>
       </c>
-      <c r="T161" t="str">
+      <c r="T161">
+        <v>15</v>
+      </c>
+      <c r="U161" t="str">
         <f t="shared" si="5"/>
         <v>http://www.waller.com/</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -15636,12 +16233,15 @@
       <c r="R162" t="b">
         <v>0</v>
       </c>
-      <c r="T162" t="str">
+      <c r="T162">
+        <v>15</v>
+      </c>
+      <c r="U162" t="str">
         <f t="shared" si="5"/>
         <v>http://www.rosario.com/</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -15681,12 +16281,15 @@
       <c r="R163" t="b">
         <v>0</v>
       </c>
-      <c r="T163" t="str">
+      <c r="T163">
+        <v>15</v>
+      </c>
+      <c r="U163" t="str">
         <f t="shared" si="5"/>
         <v>http://lawrence.biz/</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -15726,12 +16329,15 @@
       <c r="R164" t="b">
         <v>0</v>
       </c>
-      <c r="T164" t="str">
+      <c r="T164">
+        <v>15</v>
+      </c>
+      <c r="U164" t="str">
         <f t="shared" si="5"/>
         <v>http://kirk.org/</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -15771,12 +16377,15 @@
       <c r="R165" t="b">
         <v>0</v>
       </c>
-      <c r="T165" t="str">
+      <c r="T165">
+        <v>15</v>
+      </c>
+      <c r="U165" t="str">
         <f t="shared" si="5"/>
         <v>http://www.boone.com/</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -15816,12 +16425,15 @@
       <c r="R166" t="b">
         <v>0</v>
       </c>
-      <c r="T166" t="str">
+      <c r="T166">
+        <v>15</v>
+      </c>
+      <c r="U166" t="str">
         <f t="shared" si="5"/>
         <v>http://www.hess.net/</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -15861,12 +16473,15 @@
       <c r="R167" t="b">
         <v>0</v>
       </c>
-      <c r="T167" t="str">
-        <f t="shared" ref="T167:T182" si="6">_xlfn.CONCAT("http://",M167, "/")</f>
+      <c r="T167">
+        <v>15</v>
+      </c>
+      <c r="U167" t="str">
+        <f t="shared" ref="U167:U182" si="6">_xlfn.CONCAT("http://",M167, "/")</f>
         <v>http://frazier-stephenson.org/</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -15906,12 +16521,15 @@
       <c r="R168" t="b">
         <v>0</v>
       </c>
-      <c r="T168" t="str">
+      <c r="T168">
+        <v>15</v>
+      </c>
+      <c r="U168" t="str">
         <f t="shared" si="6"/>
         <v>http://nixon.com/</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -15951,12 +16569,15 @@
       <c r="R169" t="b">
         <v>0</v>
       </c>
-      <c r="T169" t="str">
+      <c r="T169">
+        <v>15</v>
+      </c>
+      <c r="U169" t="str">
         <f t="shared" si="6"/>
         <v>http://bean.net/</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -15996,12 +16617,15 @@
       <c r="R170" t="b">
         <v>0</v>
       </c>
-      <c r="T170" t="str">
+      <c r="T170">
+        <v>15</v>
+      </c>
+      <c r="U170" t="str">
         <f t="shared" si="6"/>
         <v>http://www.nixon.com/</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -16041,12 +16665,15 @@
       <c r="R171" t="b">
         <v>0</v>
       </c>
-      <c r="T171" t="str">
+      <c r="T171">
+        <v>15</v>
+      </c>
+      <c r="U171" t="str">
         <f t="shared" si="6"/>
         <v>http://blackwell-stout.net/</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -16086,12 +16713,15 @@
       <c r="R172" t="b">
         <v>0</v>
       </c>
-      <c r="T172" t="str">
+      <c r="T172">
+        <v>15</v>
+      </c>
+      <c r="U172" t="str">
         <f t="shared" si="6"/>
         <v>http://www.ruiz.com/</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -16131,12 +16761,15 @@
       <c r="R173" t="b">
         <v>0</v>
       </c>
-      <c r="T173" t="str">
+      <c r="T173">
+        <v>15</v>
+      </c>
+      <c r="U173" t="str">
         <f t="shared" si="6"/>
         <v>http://www.livingston.com/</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -16176,12 +16809,15 @@
       <c r="R174" t="b">
         <v>0</v>
       </c>
-      <c r="T174" t="str">
+      <c r="T174">
+        <v>15</v>
+      </c>
+      <c r="U174" t="str">
         <f t="shared" si="6"/>
         <v>http://www.atkinson.net/</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -16221,12 +16857,15 @@
       <c r="R175" t="b">
         <v>0</v>
       </c>
-      <c r="T175" t="str">
+      <c r="T175">
+        <v>15</v>
+      </c>
+      <c r="U175" t="str">
         <f t="shared" si="6"/>
         <v>http://www.glover.org/</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -16266,12 +16905,15 @@
       <c r="R176" t="b">
         <v>0</v>
       </c>
-      <c r="T176" t="str">
+      <c r="T176">
+        <v>15</v>
+      </c>
+      <c r="U176" t="str">
         <f t="shared" si="6"/>
         <v>http://jimenez.net/</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -16311,12 +16953,15 @@
       <c r="R177" t="b">
         <v>0</v>
       </c>
-      <c r="T177" t="str">
+      <c r="T177">
+        <v>15</v>
+      </c>
+      <c r="U177" t="str">
         <f t="shared" si="6"/>
         <v>http://coffey.net/</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -16356,12 +17001,15 @@
       <c r="R178" t="b">
         <v>0</v>
       </c>
-      <c r="T178" t="str">
+      <c r="T178">
+        <v>15</v>
+      </c>
+      <c r="U178" t="str">
         <f t="shared" si="6"/>
         <v>http://fernandez.com/</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -16401,12 +17049,15 @@
       <c r="R179" t="b">
         <v>0</v>
       </c>
-      <c r="T179" t="str">
+      <c r="T179">
+        <v>15</v>
+      </c>
+      <c r="U179" t="str">
         <f t="shared" si="6"/>
         <v>http://www.phillips.info/</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -16446,12 +17097,15 @@
       <c r="R180" t="b">
         <v>0</v>
       </c>
-      <c r="T180" t="str">
+      <c r="T180">
+        <v>15</v>
+      </c>
+      <c r="U180" t="str">
         <f t="shared" si="6"/>
         <v>http://www.jenkins-krueger.info/</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -16491,12 +17145,15 @@
       <c r="R181" t="b">
         <v>0</v>
       </c>
-      <c r="T181" t="str">
+      <c r="T181">
+        <v>15</v>
+      </c>
+      <c r="U181" t="str">
         <f t="shared" si="6"/>
         <v>http://www.carr.org/</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -16536,13 +17193,21 @@
       <c r="R182" t="b">
         <v>0</v>
       </c>
-      <c r="T182" t="str">
+      <c r="T182">
+        <v>15</v>
+      </c>
+      <c r="U182" t="str">
         <f t="shared" si="6"/>
         <v>http://monroe.info/</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
+  <conditionalFormatting sqref="T2:T182">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>"15"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K27" r:id="rId1" xr:uid="{51EEB19E-D79B-AA45-BDBC-A90C6A9FB83C}"/>
   </hyperlinks>
@@ -16557,7 +17222,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674B0AA1-43EE-D04A-A487-A58D294A06AD}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -16572,16 +17237,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1144</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>1145</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>7</v>
@@ -16607,28 +17272,28 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>1146</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>1148</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>1149</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>1150</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>1151</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>1152</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>1153</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>501</v>
@@ -16637,33 +17302,33 @@
         <v>2021-03-27</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>1156</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1157</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>528</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>1158</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>1159</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>1160</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>1161</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>501</v>
@@ -16672,33 +17337,33 @@
         <v>2021-02-28</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>1163</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>1165</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1166</v>
       </c>
       <c r="E4" s="7">
         <v>8553315303</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>1167</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>1168</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>501</v>
@@ -16707,33 +17372,33 @@
         <v>2020-11-09</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>1170</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>1171</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>1172</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>1173</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>1175</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>1176</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>1177</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>501</v>
@@ -16742,33 +17407,33 @@
         <v>2021-05-31</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>1179</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>1180</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>1181</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>1182</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>1184</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>1185</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>501</v>
@@ -16777,33 +17442,33 @@
         <v>2021-05-31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>1187</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>1188</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>1189</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>1833</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>1190</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>1191</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>1192</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>1193</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>501</v>
@@ -16812,33 +17477,33 @@
         <v>2020-12-11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>1196</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>1197</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>1198</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>1199</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>1200</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>1201</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>1202</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>501</v>
@@ -16847,33 +17512,33 @@
         <v>2021-11-16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>1204</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>1205</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>1207</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>1208</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>1210</v>
-      </c>
       <c r="H9" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>501</v>
@@ -16882,33 +17547,33 @@
         <v>2021-05-31</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>1212</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>1214</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>1215</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>1217</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>1218</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>1219</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>501</v>
@@ -16917,68 +17582,68 @@
         <v>2021-03-31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>1221</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>1223</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>1224</v>
       </c>
       <c r="E11" s="7">
         <v>1210697901</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>1226</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>1227</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>1228</v>
       </c>
       <c r="J11" s="8" t="d">
         <v>2021-11-30</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>1230</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>1231</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>1232</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>1233</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>1234</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>1235</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>1236</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>1237</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>501</v>
@@ -16987,33 +17652,33 @@
         <v>2021-04-05</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>1239</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>1240</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>1241</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>1242</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>1243</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>1244</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>1245</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>1246</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>153</v>
@@ -17022,33 +17687,33 @@
         <v>2020-12-31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>1248</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>1249</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>1250</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>1251</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>1252</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>1253</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>1254</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>1255</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>501</v>
@@ -17057,7 +17722,7 @@
         <v>2021-08-17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -17065,25 +17730,25 @@
         <v>718254770000000</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>1257</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>1258</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>1259</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>1260</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>1261</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>1262</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>1263</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>501</v>
@@ -17092,33 +17757,33 @@
         <v>2021-03-06</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>1265</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>1266</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>1267</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>1268</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>1269</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>1270</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>1271</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>1272</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>501</v>
@@ -17127,68 +17792,68 @@
         <v>2021-07-29</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>1274</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>1275</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>1276</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>1277</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>1278</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>1279</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>1280</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>1281</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>1282</v>
       </c>
       <c r="J17" s="8" t="d">
         <v>2021-12-08</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>1284</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>1285</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>1286</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>1287</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>1288</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>1289</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>1290</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>501</v>
@@ -17197,68 +17862,68 @@
         <v>2021-10-31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>1293</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>1294</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>1295</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>1296</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>1297</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>1298</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>1299</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>1300</v>
       </c>
       <c r="J19" s="8" t="d">
         <v>2021-04-24</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>1302</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>1303</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>1304</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>1305</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>1306</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>1307</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>1308</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>1309</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>501</v>
@@ -17267,33 +17932,33 @@
         <v>2020-11-10</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>1311</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>1312</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>1313</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>1314</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>1315</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>1316</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>1317</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>1318</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>501</v>
@@ -17302,33 +17967,33 @@
         <v>2020-12-03</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>1320</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>1321</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>1322</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>1323</v>
       </c>
       <c r="E22" s="7">
         <v>7856729623</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>1324</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>1325</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>1326</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>501</v>
@@ -17337,68 +18002,68 @@
         <v>2021-12-31</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>1328</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>1329</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>1330</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>1331</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>1332</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>1333</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>1334</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>1335</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>1336</v>
       </c>
       <c r="J23" s="8" t="d">
         <v>2021-08-02</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>1339</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>1340</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>1341</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>1342</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>1343</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>1344</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>1345</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>501</v>
@@ -17407,33 +18072,33 @@
         <v>2021-05-31</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>1347</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>1348</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>1349</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>1350</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>1351</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>1352</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>1353</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>1354</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>501</v>
@@ -17442,68 +18107,68 @@
         <v>2021-09-30</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>1356</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>1357</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>1358</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>528</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>1359</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>1360</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>1361</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>1362</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>1363</v>
       </c>
       <c r="J26" s="8" t="d">
         <v>2021-04-30</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>1365</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>1366</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>1367</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>1368</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>1369</v>
       </c>
       <c r="F27" s="7">
         <v>3852076147</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>501</v>
@@ -17512,33 +18177,33 @@
         <v>2021-06-28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>1372</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>1373</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>1374</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>1375</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>1376</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>1377</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>1378</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>1379</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>501</v>
@@ -17547,33 +18212,33 @@
         <v>2021-09-30</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>1381</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>1382</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>1383</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>1384</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>1385</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>1386</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>1387</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>1388</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>501</v>
@@ -17582,33 +18247,33 @@
         <v>2021-06-30</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>1390</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>1391</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>1392</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>1393</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>1394</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>1395</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>1396</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>1397</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>501</v>
@@ -17617,33 +18282,33 @@
         <v>2021-07-17</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>1399</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>1400</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>1401</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>1402</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>1403</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>1404</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>1405</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>501</v>
@@ -17652,33 +18317,33 @@
         <v>2021-11-16</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>1407</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>1408</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>1409</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>1410</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>1411</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>1412</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>1413</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>1414</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>501</v>
@@ -17687,33 +18352,33 @@
         <v>2020-12-15</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>1416</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>1417</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>1418</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>1419</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>1420</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>1421</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>1422</v>
-      </c>
       <c r="H33" s="7" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>501</v>
@@ -17722,68 +18387,68 @@
         <v>2021-12-18</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>1424</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>1425</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>1426</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>1427</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>1428</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>1429</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>1430</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="I34" s="7" t="s">
         <v>1431</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>1432</v>
       </c>
       <c r="J34" s="8" t="d">
         <v>2021-05-31</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>1434</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>1435</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>1436</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>1437</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>1439</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>1440</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>1441</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>501</v>
@@ -17792,33 +18457,33 @@
         <v>2021-10-31</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>1443</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>1444</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>1445</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>1446</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>1447</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>1448</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>1449</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>501</v>
@@ -17827,68 +18492,68 @@
         <v>2021-09-19</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>1451</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>1452</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>1453</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>1454</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>1455</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>1456</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>1457</v>
-      </c>
       <c r="I37" s="7" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="J37" s="8" t="d">
         <v>2021-03-13</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>1459</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>1460</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>1461</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>1462</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>1463</v>
       </c>
       <c r="F38" s="7">
         <v>-3470</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>1464</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>1465</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>501</v>
@@ -17897,68 +18562,68 @@
         <v>2021-06-30</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>1467</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>1468</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>1469</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>1470</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>1471</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>1472</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>1473</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>1474</v>
-      </c>
       <c r="I39" s="7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="J39" s="8" t="d">
         <v>2021-06-30</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>1476</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>1477</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>1478</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>1480</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>1481</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>1482</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>1483</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>221</v>
@@ -17967,33 +18632,33 @@
         <v>2021-03-14</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>1485</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>1486</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>1487</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>1488</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>1489</v>
       </c>
       <c r="F41" s="7">
         <v>4712298657</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>501</v>
@@ -18002,33 +18667,33 @@
         <v>2021-05-31</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>1492</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>1493</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>1494</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>1495</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>1496</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>1497</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="7" t="s">
         <v>1498</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>1499</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>501</v>
@@ -18037,33 +18702,33 @@
         <v>2021-03-31</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>1501</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>1502</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>1503</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>1504</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>1505</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>1506</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>1507</v>
-      </c>
       <c r="H43" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>501</v>
@@ -18072,33 +18737,33 @@
         <v>2021-06-30</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>1509</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>1510</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>1511</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>1512</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>1513</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>1514</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="7" t="s">
         <v>1515</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>1516</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>501</v>
@@ -18107,33 +18772,33 @@
         <v>2021-01-31</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>1518</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>1519</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>1520</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>1521</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>1522</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>1523</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>1524</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>501</v>
@@ -18142,33 +18807,33 @@
         <v>2021-10-01</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>1526</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>1527</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>1528</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>1529</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>1530</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>1531</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="H46" s="7" t="s">
         <v>1532</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>1533</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>501</v>
@@ -18177,33 +18842,33 @@
         <v>2021-10-31</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>1535</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>1536</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>1537</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>1538</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>1540</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>1541</v>
-      </c>
       <c r="H47" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>501</v>
@@ -18212,33 +18877,33 @@
         <v>2021-05-14</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>1543</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="C48" s="7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>1544</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>1545</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>1546</v>
       </c>
       <c r="F48" s="7">
         <v>6212709355</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>501</v>
@@ -18247,33 +18912,33 @@
         <v>2021-02-17</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>1549</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>1550</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>1551</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>1552</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>1553</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>1554</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="H49" s="7" t="s">
         <v>1555</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>1556</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>501</v>
@@ -18282,33 +18947,33 @@
         <v>2021-08-22</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>1558</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>1559</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="D50" s="7" t="s">
         <v>1560</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="E50" s="7" t="s">
         <v>1561</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>1562</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>1563</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="H50" s="7" t="s">
         <v>1564</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>1565</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>501</v>
@@ -18317,68 +18982,68 @@
         <v>2021-10-31</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>1567</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>1568</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>1569</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>1570</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>1571</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>1572</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>1573</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>1574</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>1575</v>
       </c>
       <c r="J51" s="8" t="d">
         <v>2021-10-30</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>1577</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>1578</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>1579</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>1580</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="F52" s="7" t="s">
         <v>1581</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>1582</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="H52" s="7" t="s">
         <v>1583</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>1584</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>221</v>
@@ -18387,33 +19052,33 @@
         <v>2021-10-31</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>1586</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>1587</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>1588</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>1589</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>1590</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>1591</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="H53" s="7" t="s">
         <v>1592</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>1593</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>221</v>
@@ -18422,33 +19087,33 @@
         <v>2021-07-24</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>1595</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>1596</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="D54" s="7" t="s">
         <v>1597</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="E54" s="7" t="s">
         <v>1598</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="F54" s="7" t="s">
         <v>1599</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>1600</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="H54" s="7" t="s">
         <v>1601</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>1602</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>221</v>
@@ -18457,103 +19122,103 @@
         <v>2021-07-15</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>1604</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>1605</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>1606</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>1607</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>1608</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>1609</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="H55" s="7" t="s">
         <v>1610</v>
       </c>
-      <c r="H55" s="7" t="s">
-        <v>1611</v>
-      </c>
       <c r="I55" s="7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="J55" s="8" t="d">
         <v>2020-12-15</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>1613</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>1614</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D56" s="7" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>1615</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>1616</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>1617</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>1618</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="I56" s="7" t="s">
         <v>1619</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>1620</v>
       </c>
       <c r="J56" s="8" t="d">
         <v>2021-09-19</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>1623</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>1624</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>1625</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>1626</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="H57" s="7" t="s">
         <v>1627</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>1628</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>501</v>
@@ -18562,33 +19227,33 @@
         <v>2021-02-27</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>1630</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>1631</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="D58" s="7" t="s">
         <v>1632</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="E58" s="7" t="s">
         <v>1633</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="F58" s="7" t="s">
         <v>1634</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="G58" s="7" t="s">
         <v>1635</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>1636</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>1637</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>501</v>
@@ -18597,33 +19262,33 @@
         <v>2021-05-31</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>1639</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>1640</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>1641</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="E59" s="7" t="s">
         <v>1642</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>1643</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>1644</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>1645</v>
-      </c>
       <c r="H59" s="7" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>501</v>
@@ -18632,33 +19297,33 @@
         <v>2020-11-30</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>1647</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>1648</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>1649</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>1650</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="F60" s="7" t="s">
         <v>1651</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="G60" s="7" t="s">
         <v>1652</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="H60" s="7" t="s">
         <v>1653</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>1654</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>501</v>
@@ -18667,33 +19332,33 @@
         <v>2021-01-08</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>1656</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>1657</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>1658</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>1552</v>
-      </c>
-      <c r="E61" s="7" t="s">
+      <c r="F61" s="7" t="s">
         <v>1659</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>1660</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>1661</v>
-      </c>
       <c r="H61" s="7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>501</v>
@@ -18702,33 +19367,33 @@
         <v>2021-04-24</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>1663</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>1664</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>1665</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="E62" s="7" t="s">
         <v>1666</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="F62" s="7" t="s">
         <v>1667</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>1668</v>
       </c>
-      <c r="G62" s="7" t="s">
-        <v>1669</v>
-      </c>
       <c r="H62" s="7" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>501</v>
@@ -18737,33 +19402,33 @@
         <v>2021-06-30</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>1671</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>1672</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="D63" s="7" t="s">
         <v>1673</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="E63" s="7" t="s">
         <v>1674</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>1675</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>1676</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>1677</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>1678</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>221</v>
@@ -18772,33 +19437,33 @@
         <v>2021-05-16</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>1680</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>1681</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>1682</v>
-      </c>
       <c r="D64" s="7" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E64" s="7">
         <v>5756499602</v>
       </c>
       <c r="F64" s="7" t="s">
+        <v>1682</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>1683</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>1684</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>1685</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>501</v>
@@ -18807,33 +19472,33 @@
         <v>2021-01-04</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>1687</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>1688</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="D65" s="7" t="s">
         <v>1689</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="E65" s="7" t="s">
         <v>1690</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="F65" s="7" t="s">
         <v>1691</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>1692</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>1693</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>1694</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>501</v>
@@ -18842,33 +19507,33 @@
         <v>2021-10-10</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>1696</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>1697</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="D66" s="7" t="s">
         <v>1698</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="E66" s="7" t="s">
         <v>1699</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>1700</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>1701</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="H66" s="7" t="s">
         <v>1702</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>1703</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>501</v>
@@ -18877,33 +19542,33 @@
         <v>2021-11-30</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>1705</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>1706</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="D67" s="7" t="s">
         <v>1707</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>1708</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>1709</v>
       </c>
       <c r="F67" s="7">
         <v>9434040481</v>
       </c>
       <c r="G67" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="H67" s="7" t="s">
         <v>1710</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>1711</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>501</v>
@@ -18912,33 +19577,33 @@
         <v>2021-01-27</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>1713</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>1714</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="D68" s="7" t="s">
         <v>1715</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="E68" s="7" t="s">
         <v>1716</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="F68" s="7" t="s">
         <v>1717</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>1718</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>1719</v>
-      </c>
       <c r="H68" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>501</v>
@@ -18947,33 +19612,33 @@
         <v>2021-04-30</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>1721</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>1722</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="D69" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>1723</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E69" s="7" t="s">
+      <c r="F69" s="7" t="s">
         <v>1724</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="G69" s="7" t="s">
         <v>1725</v>
       </c>
-      <c r="G69" s="7" t="s">
-        <v>1726</v>
-      </c>
       <c r="H69" s="7" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>501</v>
@@ -18982,68 +19647,68 @@
         <v>2021-08-26</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>1728</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>1729</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>1730</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>1731</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="F70" s="7" t="s">
         <v>1732</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>1733</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="H70" s="7" t="s">
         <v>1734</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="I70" s="7" t="s">
         <v>1735</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>1736</v>
       </c>
       <c r="J70" s="8" t="d">
         <v>2021-01-31</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>1738</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>1739</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>1740</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>380</v>
       </c>
       <c r="E71" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>1741</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="G71" s="7" t="s">
         <v>1742</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>1743</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>1744</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>221</v>
@@ -19052,33 +19717,33 @@
         <v>2021-03-14</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>1746</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>1747</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="D72" s="7" t="s">
         <v>1748</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="E72" s="7" t="s">
         <v>1749</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="F72" s="7" t="s">
         <v>1750</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="G72" s="7" t="s">
         <v>1751</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>1752</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>1753</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>501</v>
@@ -19087,33 +19752,33 @@
         <v>2021-02-28</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>1755</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>1756</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>1757</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>228</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>1758</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>1759</v>
       </c>
-      <c r="G73" s="7" t="s">
-        <v>1760</v>
-      </c>
       <c r="H73" s="7" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>501</v>
@@ -19122,33 +19787,33 @@
         <v>2021-06-12</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>1762</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>1763</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="D74" s="7" t="s">
         <v>1764</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>1765</v>
       </c>
       <c r="E74" s="7">
         <v>6327004999</v>
       </c>
       <c r="F74" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>1766</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>1767</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>1768</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>153</v>
@@ -19157,33 +19822,33 @@
         <v>2021-06-28</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>1770</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>1771</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="D75" s="7" t="s">
         <v>1772</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="E75" s="7" t="s">
         <v>1773</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="F75" s="7" t="s">
         <v>1774</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="G75" s="7" t="s">
         <v>1775</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="H75" s="7" t="s">
         <v>1776</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>1777</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>501</v>
@@ -19192,33 +19857,33 @@
         <v>2021-04-30</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>1779</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>1780</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="D76" s="7" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>1781</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>1782</v>
       </c>
       <c r="F76" s="7">
         <v>8198087937</v>
       </c>
       <c r="G76" s="7" t="s">
+        <v>1782</v>
+      </c>
+      <c r="H76" s="7" t="s">
         <v>1783</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>1784</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>501</v>
@@ -19227,33 +19892,33 @@
         <v>2021-06-30</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>1786</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>1787</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="D77" s="7" t="s">
         <v>1788</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="E77" s="7" t="s">
         <v>1789</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="F77" s="7" t="s">
         <v>1790</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="G77" s="7" t="s">
         <v>1791</v>
       </c>
-      <c r="G77" s="7" t="s">
-        <v>1792</v>
-      </c>
       <c r="H77" s="7" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>501</v>
@@ -19262,33 +19927,33 @@
         <v>2021-10-22</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>1794</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>1795</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="D78" s="7" t="s">
         <v>1796</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>1797</v>
       </c>
       <c r="E78" s="7">
         <v>-5013</v>
       </c>
       <c r="F78" s="7" t="s">
+        <v>1797</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>1798</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="H78" s="7" t="s">
         <v>1799</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>1800</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>501</v>
@@ -19297,33 +19962,33 @@
         <v>2021-04-30</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>1802</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>1803</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>1804</v>
-      </c>
       <c r="D79" s="7" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E79" s="7">
         <v>4682694682</v>
       </c>
       <c r="F79" s="7" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>1805</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="H79" s="7" t="s">
         <v>1806</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>1807</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>501</v>
@@ -19332,33 +19997,33 @@
         <v>2021-10-31</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>1809</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>1810</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="D80" s="7" t="s">
         <v>1811</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="E80" s="7" t="s">
         <v>1812</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>1813</v>
       </c>
       <c r="F80" s="7">
         <v>6110447130</v>
       </c>
       <c r="G80" s="7" t="s">
+        <v>1813</v>
+      </c>
+      <c r="H80" s="7" t="s">
         <v>1814</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>1815</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>501</v>
@@ -19367,33 +20032,33 @@
         <v>2021-11-17</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>1817</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>1818</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="D81" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E81" s="7" t="s">
         <v>1819</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E81" s="7" t="s">
+      <c r="F81" s="7" t="s">
         <v>1820</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="G81" s="7" t="s">
         <v>1821</v>
       </c>
-      <c r="G81" s="7" t="s">
-        <v>1822</v>
-      </c>
       <c r="H81" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>501</v>
@@ -19402,33 +20067,33 @@
         <v>2021-03-19</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>1824</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>1825</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="D82" s="7" t="s">
         <v>1826</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="E82" s="7" t="s">
         <v>1827</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="F82" s="7" t="s">
         <v>1828</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="G82" s="7" t="s">
         <v>1829</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="H82" s="7" t="s">
         <v>1830</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>1831</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>501</v>
@@ -19437,7 +20102,7 @@
         <v>2021-03-02</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
   </sheetData>
@@ -23346,7 +24011,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:L102">
-    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
